--- a/InputData/trans/QSfV/Quantization Size for Vehicles.xlsx
+++ b/InputData/trans/QSfV/Quantization Size for Vehicles.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\trans\QSfV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\QSfV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E60433-62A8-42CA-9C04-072711A923B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA6B635-70EF-480B-AFFF-7EDC445B5BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="450" windowWidth="24765" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21090" yWindow="660" windowWidth="25935" windowHeight="22050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="QSfV" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Source:</t>
   </si>
@@ -46,34 +46,49 @@
     <t>error to be visible on the graphs.</t>
   </si>
   <si>
-    <t>LDVs</t>
-  </si>
-  <si>
-    <t>HDVs</t>
-  </si>
-  <si>
-    <t>aircraft</t>
-  </si>
-  <si>
-    <t>rail</t>
-  </si>
-  <si>
-    <t>ships</t>
-  </si>
-  <si>
-    <t>motorbikes</t>
-  </si>
-  <si>
-    <t>passengers</t>
-  </si>
-  <si>
-    <t>freight</t>
-  </si>
-  <si>
     <t>Quantization Size (vehicles)</t>
   </si>
   <si>
     <t>QSfV Quantization Size for Vehicles</t>
+  </si>
+  <si>
+    <t>passenger LDVs</t>
+  </si>
+  <si>
+    <t>passenger HDVs</t>
+  </si>
+  <si>
+    <t>passenger aircraft</t>
+  </si>
+  <si>
+    <t>passenger rail</t>
+  </si>
+  <si>
+    <t>passenger ships</t>
+  </si>
+  <si>
+    <t>passenger motorbikes</t>
+  </si>
+  <si>
+    <t>freight LDVs</t>
+  </si>
+  <si>
+    <t>freight HDVs</t>
+  </si>
+  <si>
+    <t>freight aircraft</t>
+  </si>
+  <si>
+    <t>freight rail</t>
+  </si>
+  <si>
+    <t>freight ships</t>
+  </si>
+  <si>
+    <t>freight motorbikes</t>
+  </si>
+  <si>
+    <t>vehicles</t>
   </si>
 </sst>
 </file>
@@ -415,7 +430,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,7 +472,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -465,83 +480,109 @@
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
         <v>3</v>
       </c>
     </row>
